--- a/outputs/07_18_2024_15_29_50_cleaned_output.xlsx
+++ b/outputs/07_18_2024_15_29_50_cleaned_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\ZlabCode\qtProjects\autograph_behavior\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95201589-972E-4C88-AD8B-16EE7F025239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C27A01-664C-43FE-A186-A336BE35E5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5310" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="5430" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean duration" sheetId="1" r:id="rId1"/>
@@ -943,15 +943,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
@@ -959,7 +959,8 @@
     <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -1370,6 +1371,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1776,9 +1781,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
